--- a/Documents/Test Sheet.xlsx
+++ b/Documents/Test Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT-Digital-Systems-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DAD22C-E7D4-406C-925E-051ED2039638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674463A-D908-4241-A126-02F527F0C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1110,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>92</v>
@@ -1136,7 +1136,7 @@
         <v>5</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>110</v>
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>111</v>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>112</v>
@@ -1723,60 +1723,60 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E1 J4:K4 I4:I5 E2:G304">
-    <cfRule type="endsWith" dxfId="15" priority="13" operator="endsWith" text="Not Implemented">
+  <conditionalFormatting sqref="A1 A2:C2">
+    <cfRule type="endsWith" dxfId="15" priority="1" operator="endsWith" text="Not Implemented">
+      <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="14" priority="2" operator="beginsWith" text="Partically Functional">
+      <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="13" priority="3" operator="beginsWith" text="Not Functional">
+      <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="12" priority="4" operator="beginsWith" text="Functional">
+      <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1 E2:G304 J4:K4 I4:I5">
+    <cfRule type="endsWith" dxfId="11" priority="13" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(E1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="15" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="10" priority="15" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(E1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="16" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="9" priority="16" operator="beginsWith" text="Not Functional">
       <formula>LEFT(E1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="17" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="8" priority="17" operator="beginsWith" text="Functional">
       <formula>LEFT(E1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:K3 I1">
-    <cfRule type="endsWith" dxfId="11" priority="9" operator="endsWith" text="Not Implemented">
+  <conditionalFormatting sqref="I1 I2:K3">
+    <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(I1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="10" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="6" priority="10" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(I1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="11" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="5" priority="11" operator="beginsWith" text="Not Functional">
       <formula>LEFT(I1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="12" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="4" priority="12" operator="beginsWith" text="Functional">
       <formula>LEFT(I1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2:O2 M1">
-    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="Not Implemented">
+  <conditionalFormatting sqref="M1 M2:O2">
+    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(M1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="6" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="2" priority="6" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(M1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="7" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="1" priority="7" operator="beginsWith" text="Not Functional">
       <formula>LEFT(M1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="8" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="0" priority="8" operator="beginsWith" text="Functional">
       <formula>LEFT(M1,LEN("Functional"))="Functional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:C2 A1">
-    <cfRule type="endsWith" dxfId="3" priority="1" operator="endsWith" text="Not Implemented">
-      <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="Partically Functional">
-      <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="3" operator="beginsWith" text="Not Functional">
-      <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" operator="beginsWith" text="Functional">
-      <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Test Sheet.xlsx
+++ b/Documents/Test Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674463A-D908-4241-A126-02F527F0C337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E952F6D-5493-452D-A865-06F86B651EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>113</v>
@@ -1220,7 +1220,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>114</v>
@@ -1241,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>115</v>
@@ -1262,7 +1262,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>116</v>
@@ -1391,7 +1391,7 @@
         <v>21</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="5:7" x14ac:dyDescent="0.3">

--- a/Documents/Test Sheet.xlsx
+++ b/Documents/Test Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E952F6D-5493-452D-A865-06F86B651EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14970486-72D1-4EA1-A923-62D3B61DCF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="158">
   <si>
     <t>Task</t>
   </si>
@@ -418,6 +418,87 @@
   </si>
   <si>
     <t>A50</t>
+  </si>
+  <si>
+    <t>Get Date and Time Data</t>
+  </si>
+  <si>
+    <t>Measure Heart Rate</t>
+  </si>
+  <si>
+    <t>Measure Steps</t>
+  </si>
+  <si>
+    <t>Measure Steps Goal Percentage</t>
+  </si>
+  <si>
+    <t>Measure Blood Oxygen Level</t>
+  </si>
+  <si>
+    <t>Measure Body Temperature</t>
+  </si>
+  <si>
+    <t>Display Live Date and Time</t>
+  </si>
+  <si>
+    <t>Display Live Heart Rate</t>
+  </si>
+  <si>
+    <t>Display Steps Goal Percentage</t>
+  </si>
+  <si>
+    <t>Display Live Blood Oxygen Level</t>
+  </si>
+  <si>
+    <t>Display Live Body Temperature</t>
+  </si>
+  <si>
+    <t>AW12</t>
+  </si>
+  <si>
+    <t>AW13</t>
+  </si>
+  <si>
+    <t>AW14</t>
+  </si>
+  <si>
+    <t>AW15</t>
+  </si>
+  <si>
+    <t>AW16</t>
+  </si>
+  <si>
+    <t>AW17</t>
+  </si>
+  <si>
+    <t>Measure Battery Percentage</t>
+  </si>
+  <si>
+    <t>Display Live Battery Percentage</t>
+  </si>
+  <si>
+    <t>Bluetooth LE connection from Android to Arduino Watch</t>
+  </si>
+  <si>
+    <t>Bluetooth LE connection from Desktop to Arduino Watch</t>
+  </si>
+  <si>
+    <t>Bluetooth Data transfer of body data to AFNT App (Desktop)</t>
+  </si>
+  <si>
+    <t>Bluetooth Data transfer of body data to AFNT App (Smartphone)</t>
+  </si>
+  <si>
+    <t>Partially Functional</t>
+  </si>
+  <si>
+    <t>Process Arduino Watch Data in AFNT App</t>
+  </si>
+  <si>
+    <t>AW18</t>
+  </si>
+  <si>
+    <t>Not Functional</t>
   </si>
 </sst>
 </file>
@@ -533,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -559,11 +640,818 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="120">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -967,7 +1855,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,6 +1863,7 @@
     <col min="5" max="5" width="18.6640625" style="7"/>
     <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="1"/>
+    <col min="14" max="14" width="60.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
@@ -1064,8 +1953,12 @@
       <c r="M3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
@@ -1094,8 +1987,12 @@
       <c r="M4" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1120,8 +2017,12 @@
       <c r="M5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1141,8 +2042,12 @@
       <c r="M6" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1162,8 +2067,12 @@
       <c r="M7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1183,8 +2092,12 @@
       <c r="M8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1204,8 +2117,12 @@
       <c r="M9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1225,8 +2142,12 @@
       <c r="M10" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
@@ -1246,8 +2167,12 @@
       <c r="M11" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1267,8 +2192,12 @@
       <c r="M12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1288,8 +2217,12 @@
       <c r="M13" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1306,6 +2239,15 @@
       <c r="G14" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1322,6 +2264,15 @@
       <c r="G15" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="M15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1338,8 +2289,17 @@
       <c r="G16" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="6" t="s">
         <v>55</v>
       </c>
@@ -1349,8 +2309,17 @@
       <c r="G17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M17" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="6" t="s">
         <v>56</v>
       </c>
@@ -1360,8 +2329,17 @@
       <c r="G18" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="6" t="s">
         <v>57</v>
       </c>
@@ -1371,8 +2349,17 @@
       <c r="G19" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="6" t="s">
         <v>58</v>
       </c>
@@ -1382,8 +2369,17 @@
       <c r="G20" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="6" t="s">
         <v>59</v>
       </c>
@@ -1394,7 +2390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="6" t="s">
         <v>60</v>
       </c>
@@ -1405,7 +2401,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6" t="s">
         <v>61</v>
       </c>
@@ -1416,7 +2412,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="6" t="s">
         <v>62</v>
       </c>
@@ -1427,7 +2423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1438,7 +2434,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1449,7 +2445,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1460,7 +2456,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E28" s="6" t="s">
         <v>66</v>
       </c>
@@ -1471,7 +2467,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E29" s="6" t="s">
         <v>67</v>
       </c>
@@ -1482,7 +2478,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E30" s="6" t="s">
         <v>68</v>
       </c>
@@ -1493,7 +2489,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E31" s="6" t="s">
         <v>69</v>
       </c>
@@ -1504,7 +2500,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E32" s="6" t="s">
         <v>70</v>
       </c>
@@ -1724,59 +2720,87 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:C2">
-    <cfRule type="endsWith" dxfId="15" priority="1" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="47" priority="9" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="14" priority="2" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="46" priority="10" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="3" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="45" priority="11" operator="beginsWith" text="Not Functional">
       <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="12" priority="4" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="44" priority="12" operator="beginsWith" text="Functional">
       <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E2:G304 J4:K4 I4:I5">
-    <cfRule type="endsWith" dxfId="11" priority="13" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="43" priority="21" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(E1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="15" operator="beginsWith" text="Partically Functional">
-      <formula>LEFT(E1,LEN("Partically Functional"))="Partically Functional"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="16" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="42" priority="24" operator="beginsWith" text="Not Functional">
       <formula>LEFT(E1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="8" priority="17" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="41" priority="25" operator="beginsWith" text="Functional">
       <formula>LEFT(E1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I2:K3">
-    <cfRule type="endsWith" dxfId="7" priority="9" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="40" priority="17" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(I1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="10" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="39" priority="18" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(I1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="11" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="38" priority="19" operator="beginsWith" text="Not Functional">
       <formula>LEFT(I1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="12" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="37" priority="20" operator="beginsWith" text="Functional">
       <formula>LEFT(I1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1 M2:O2">
-    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="36" priority="13" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(M1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="35" priority="14" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(M1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="34" priority="15" operator="beginsWith" text="Not Functional">
       <formula>LEFT(M1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="8" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="33" priority="16" operator="beginsWith" text="Functional">
       <formula>LEFT(M1,LEN("Functional"))="Functional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:O16">
+    <cfRule type="endsWith" dxfId="32" priority="5" operator="endsWith" text="Not Implemented">
+      <formula>RIGHT(O3,LEN("Not Implemented"))="Not Implemented"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="31" priority="6" operator="beginsWith" text="Partically Functional">
+      <formula>LEFT(O3,LEN("Partically Functional"))="Partically Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="30" priority="7" operator="beginsWith" text="Not Functional">
+      <formula>LEFT(O3,LEN("Not Functional"))="Not Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="29" priority="8" operator="beginsWith" text="Functional">
+      <formula>LEFT(O3,LEN("Functional"))="Functional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="beginsWith" dxfId="28" priority="23" operator="beginsWith" text="Partially Functional">
+      <formula>LEFT(A1,LEN("Partially Functional"))="Partially Functional"</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="27" priority="1" operator="endsWith" text="Not Implemented">
+      <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="26" priority="2" operator="beginsWith" text="Partically Functional">
+      <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="25" priority="3" operator="beginsWith" text="Not Functional">
+      <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="24" priority="4" operator="beginsWith" text="Functional">
+      <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Test Sheet.xlsx
+++ b/Documents/Test Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14970486-72D1-4EA1-A923-62D3B61DCF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{14970486-72D1-4EA1-A923-62D3B61DCF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAC6E8F8-770C-44DA-A66C-B219E226014C}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-3630" windowWidth="19200" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -640,26 +640,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <fill>
         <patternFill>
@@ -687,6 +672,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
@@ -766,751 +758,14 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1855,7 +1110,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,6 +1196,9 @@
       <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>90</v>
       </c>
@@ -1975,6 +1233,9 @@
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>91</v>
       </c>
@@ -2267,7 +1528,7 @@
       <c r="M15" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="3" t="s">
         <v>149</v>
       </c>
       <c r="O15" s="4" t="s">
@@ -2372,7 +1633,7 @@
       <c r="M20" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="3" t="s">
         <v>155</v>
       </c>
       <c r="O20" s="4" t="s">
@@ -2720,87 +1981,87 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1 A2:C2">
-    <cfRule type="endsWith" dxfId="47" priority="9" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="23" priority="9" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="46" priority="10" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="22" priority="10" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="45" priority="11" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="21" priority="11" operator="beginsWith" text="Not Functional">
       <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="44" priority="12" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="20" priority="12" operator="beginsWith" text="Functional">
       <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="endsWith" dxfId="19" priority="1" operator="endsWith" text="Not Implemented">
+      <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="2" operator="beginsWith" text="Partically Functional">
+      <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="17" priority="3" operator="beginsWith" text="Not Functional">
+      <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="16" priority="4" operator="beginsWith" text="Functional">
+      <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="15" priority="23" operator="beginsWith" text="Partially Functional">
+      <formula>LEFT(A1,LEN("Partially Functional"))="Partially Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1 E2:G304 J4:K4 I4:I5">
-    <cfRule type="endsWith" dxfId="43" priority="21" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="14" priority="21" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(E1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="42" priority="24" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="13" priority="24" operator="beginsWith" text="Not Functional">
       <formula>LEFT(E1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="41" priority="25" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="12" priority="25" operator="beginsWith" text="Functional">
       <formula>LEFT(E1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1 I2:K3">
-    <cfRule type="endsWith" dxfId="40" priority="17" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="11" priority="17" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(I1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="39" priority="18" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="10" priority="18" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(I1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="19" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="9" priority="19" operator="beginsWith" text="Not Functional">
       <formula>LEFT(I1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="37" priority="20" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="8" priority="20" operator="beginsWith" text="Functional">
       <formula>LEFT(I1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1 M2:O2">
-    <cfRule type="endsWith" dxfId="36" priority="13" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="7" priority="13" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(M1,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="35" priority="14" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="6" priority="14" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(M1,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="34" priority="15" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="5" priority="15" operator="beginsWith" text="Not Functional">
       <formula>LEFT(M1,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="16" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="4" priority="16" operator="beginsWith" text="Functional">
       <formula>LEFT(M1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3:O16">
-    <cfRule type="endsWith" dxfId="32" priority="5" operator="endsWith" text="Not Implemented">
+    <cfRule type="endsWith" dxfId="3" priority="5" operator="endsWith" text="Not Implemented">
       <formula>RIGHT(O3,LEN("Not Implemented"))="Not Implemented"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="31" priority="6" operator="beginsWith" text="Partically Functional">
+    <cfRule type="beginsWith" dxfId="2" priority="6" operator="beginsWith" text="Partically Functional">
       <formula>LEFT(O3,LEN("Partically Functional"))="Partically Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="7" operator="beginsWith" text="Not Functional">
+    <cfRule type="beginsWith" dxfId="1" priority="7" operator="beginsWith" text="Not Functional">
       <formula>LEFT(O3,LEN("Not Functional"))="Not Functional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="29" priority="8" operator="beginsWith" text="Functional">
+    <cfRule type="beginsWith" dxfId="0" priority="8" operator="beginsWith" text="Functional">
       <formula>LEFT(O3,LEN("Functional"))="Functional"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="beginsWith" dxfId="28" priority="23" operator="beginsWith" text="Partially Functional">
-      <formula>LEFT(A1,LEN("Partially Functional"))="Partially Functional"</formula>
-    </cfRule>
-    <cfRule type="endsWith" dxfId="27" priority="1" operator="endsWith" text="Not Implemented">
-      <formula>RIGHT(A1,LEN("Not Implemented"))="Not Implemented"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="26" priority="2" operator="beginsWith" text="Partically Functional">
-      <formula>LEFT(A1,LEN("Partically Functional"))="Partically Functional"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="3" operator="beginsWith" text="Not Functional">
-      <formula>LEFT(A1,LEN("Not Functional"))="Not Functional"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="24" priority="4" operator="beginsWith" text="Functional">
-      <formula>LEFT(A1,LEN("Functional"))="Functional"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
